--- a/src/i18n/i18n_table.xlsx
+++ b/src/i18n/i18n_table.xlsx
@@ -24,11 +24,11 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="篩選器 2" guid="{A49D9809-A3E9-4FA2-8EA4-867396B6504A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="篩選器 1" guid="{38507902-7545-485C-834F-5E4850BE1025}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="篩選器 4" guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="篩選器 3" guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="AJ篩選 非本人勿用" guid="{26C905C7-2C39-4702-9479-6A8F4386ED3B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="篩選器 3" guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="篩選器 4" guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="篩選器 1" guid="{38507902-7545-485C-834F-5E4850BE1025}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="篩選器 2" guid="{A49D9809-A3E9-4FA2-8EA4-867396B6504A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="367">
   <si>
     <t>Key</t>
   </si>
@@ -166,18 +166,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ExcelSystem</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExcelTest</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExcelPage</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Excel系統123</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1367,6 +1355,65 @@
   </si>
   <si>
     <t>Save</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ccolor Tone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel Page</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel Test</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel System</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>色调</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorTone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>色調</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>深色
+色調</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅色
+色調</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>淺色
+色調</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1467,7 +1514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1557,11 +1604,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1584,11 +1666,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1862,8 +1983,8 @@
   <dimension ref="A1:U106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E96" sqref="E96:H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -2024,16 +2145,16 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2057,16 +2178,16 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2092,16 +2213,16 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -2127,16 +2248,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2160,16 +2281,16 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2195,16 +2316,16 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2230,16 +2351,16 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2263,16 +2384,16 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2296,16 +2417,16 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2329,16 +2450,16 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2362,16 +2483,16 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2395,16 +2516,16 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2428,16 +2549,16 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2461,16 +2582,16 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2494,16 +2615,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2527,16 +2648,16 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2560,16 +2681,16 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2593,16 +2714,16 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2625,16 +2746,16 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1">
@@ -2644,16 +2765,16 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1">
@@ -2663,16 +2784,16 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1">
@@ -2682,16 +2803,16 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1">
@@ -2701,16 +2822,16 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1">
@@ -2720,16 +2841,16 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1">
@@ -2739,16 +2860,16 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1">
@@ -2758,16 +2879,16 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1">
@@ -2777,16 +2898,16 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1">
@@ -2796,16 +2917,16 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1">
@@ -2815,16 +2936,16 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1">
@@ -2834,16 +2955,16 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1">
@@ -2853,16 +2974,16 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1">
@@ -2872,16 +2993,16 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1">
@@ -2891,16 +3012,16 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1">
@@ -2910,16 +3031,16 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1">
@@ -2929,16 +3050,16 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1">
@@ -2948,16 +3069,16 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1">
@@ -2967,16 +3088,16 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1">
@@ -2986,16 +3107,16 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1">
@@ -3005,16 +3126,16 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1">
@@ -3024,16 +3145,16 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1">
@@ -3043,16 +3164,16 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1">
@@ -3062,16 +3183,16 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1">
@@ -3081,16 +3202,16 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1">
@@ -3100,16 +3221,16 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1">
@@ -3119,16 +3240,16 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1">
@@ -3138,16 +3259,16 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1">
@@ -3157,16 +3278,16 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1">
@@ -3176,16 +3297,16 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1">
@@ -3195,16 +3316,16 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1">
@@ -3214,16 +3335,16 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1">
@@ -3233,16 +3354,16 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1">
@@ -3252,16 +3373,16 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1">
@@ -3271,16 +3392,16 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1">
@@ -3290,16 +3411,16 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1">
@@ -3309,16 +3430,16 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1">
@@ -3328,16 +3449,16 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1">
@@ -3347,16 +3468,16 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1">
@@ -3366,16 +3487,16 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1">
@@ -3385,16 +3506,16 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
@@ -3404,533 +3525,546 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" customHeight="1">
       <c r="B65" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1">
       <c r="B66" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1">
       <c r="B68" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1">
       <c r="B69" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1">
       <c r="B70" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" customHeight="1">
       <c r="B71" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1">
       <c r="B72" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" customHeight="1">
       <c r="B73" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" customHeight="1">
       <c r="B74" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1">
       <c r="B75" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1">
       <c r="B76" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" customHeight="1">
       <c r="B77" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" customHeight="1">
       <c r="B78" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" customHeight="1">
       <c r="B79" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1">
-      <c r="B80" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" customHeight="1">
+      <c r="A80" s="9"/>
+      <c r="B80" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="15" customHeight="1">
-      <c r="B81" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" customHeight="1">
+      <c r="A81" s="9"/>
+      <c r="B81" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="15" customHeight="1">
-      <c r="B82" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1">
+      <c r="A82" s="9"/>
+      <c r="B82" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="15" customHeight="1">
-      <c r="B83" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1">
+      <c r="A83" s="9"/>
+      <c r="B83" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H83" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1">
-      <c r="B84" s="7" t="s">
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1">
+      <c r="A84" s="9"/>
+      <c r="B84" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="H84" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1">
-      <c r="B85" s="7" t="s">
+    </row>
+    <row r="85" spans="1:8" ht="15" customHeight="1">
+      <c r="A85" s="9"/>
+      <c r="B85" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="H85" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F85" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" ht="15" customHeight="1">
-      <c r="B86" s="7" t="s">
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1">
+      <c r="A86" s="9"/>
+      <c r="B86" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" ht="15" customHeight="1">
-      <c r="B87" s="7" t="s">
+    </row>
+    <row r="87" spans="1:8" ht="15" customHeight="1">
+      <c r="A87" s="9"/>
+      <c r="B87" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" ht="15" customHeight="1">
-      <c r="B88" s="7" t="s">
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1">
+      <c r="A88" s="9"/>
+      <c r="B88" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="15" customHeight="1">
-      <c r="B89" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" customHeight="1">
+      <c r="A89" s="9"/>
+      <c r="B89" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="15" customHeight="1">
-      <c r="B90" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" customHeight="1">
+      <c r="A90" s="9"/>
+      <c r="B90" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1">
-      <c r="B91" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" customHeight="1">
+      <c r="A91" s="9"/>
+      <c r="B91" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1">
-      <c r="B92" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1">
+      <c r="A92" s="9"/>
+      <c r="B92" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="1"/>
@@ -3948,8 +4082,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="15" customHeight="1">
-      <c r="B93" s="8" t="s">
+    <row r="93" spans="1:8" ht="15" customHeight="1">
+      <c r="A93" s="9"/>
+      <c r="B93" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="10"/>
@@ -3958,17 +4093,18 @@
         <v>23</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="15" customHeight="1">
-      <c r="B94" s="9"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" customHeight="1">
+      <c r="A94" s="9"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="15" t="s">
         <v>17</v>
       </c>
@@ -3983,89 +4119,123 @@
         <v>29</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="15" customHeight="1">
-      <c r="B95" s="9"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1">
+      <c r="A95" s="9"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="15" customHeight="1">
-      <c r="E96" s="2"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-    </row>
-    <row r="97" spans="5:8" ht="15" customHeight="1">
-      <c r="E97" s="2"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-    </row>
-    <row r="98" spans="5:8" ht="15" customHeight="1">
-      <c r="E98" s="2"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-    </row>
-    <row r="99" spans="5:8" ht="15" customHeight="1">
+      <c r="H95" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="B96" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="B97" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="B98" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="15" customHeight="1">
       <c r="E99" s="2"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="5:8" ht="15" customHeight="1">
+    <row r="100" spans="2:8" ht="15" customHeight="1">
       <c r="E100" s="2"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="5:8" ht="15" customHeight="1">
+    <row r="101" spans="2:8" ht="15" customHeight="1">
       <c r="E101" s="2"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="5:8" ht="15" customHeight="1">
+    <row r="102" spans="2:8" ht="15" customHeight="1">
       <c r="E102" s="2"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="5:8" ht="15" customHeight="1">
+    <row r="103" spans="2:8" ht="15" customHeight="1">
       <c r="E103" s="2"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="5:8" ht="15" customHeight="1">
+    <row r="104" spans="2:8" ht="15" customHeight="1">
       <c r="E104" s="2"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="5:8" ht="15" customHeight="1">
+    <row r="105" spans="2:8" ht="15" customHeight="1">
       <c r="E105" s="2"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="5:8" ht="15" customHeight="1">
+    <row r="106" spans="2:8" ht="15" customHeight="1">
       <c r="E106" s="2"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -4078,18 +4248,30 @@
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A2:AA913">
-        <filterColumn colId="3">
-          <filters>
-            <filter val="V"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
+      <autoFilter ref="E1:E907"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1007846334"/>
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="573770298"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{38507902-7545-485C-834F-5E4850BE1025}" filter="1" showAutoFilter="1">
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <autoFilter ref="A2:I613"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2063878908"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{A49D9809-A3E9-4FA2-8EA4-867396B6504A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <autoFilter ref="A1:N612"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2032162165"/>
         </ext>
       </extLst>
     </customSheetView>
@@ -4110,68 +4292,76 @@
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{A49D9809-A3E9-4FA2-8EA4-867396B6504A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:N612"/>
+      <autoFilter ref="A2:AA913">
+        <filterColumn colId="3">
+          <filters>
+            <filter val="V"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2032162165"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{38507902-7545-485C-834F-5E4850BE1025}" filter="1" showAutoFilter="1">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A2:I613"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2063878908"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" filter="1" showAutoFilter="1">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="E1:E907"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="573770298"/>
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1007846334"/>
         </ext>
       </extLst>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="F2:H3 E1:E3 E96:E106 E4:H4 E92:H95">
-    <cfRule type="expression" dxfId="6" priority="85">
+  <conditionalFormatting sqref="F2:H3 E1:E3 E96 E4:H4 E92:H95 E99:E106">
+    <cfRule type="expression" dxfId="10" priority="89">
       <formula>COUNTIF($E:$E,$E1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4 F1:F4 F92:F106 H92:H106">
-    <cfRule type="expression" dxfId="5" priority="86">
+  <conditionalFormatting sqref="H2:H4 F1:F4 F92:F96 H92:H96 H99:H106 F99:F106">
+    <cfRule type="expression" dxfId="9" priority="90">
       <formula>COUNTIF($F:$F,$F1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:H87 E5:H19 E21:H83">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>COUNTIF($M:$M,$M5)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:G69 H85:H91 H5:H60 F85:F91 F5:F60 F62:F65 H62:H65 H67:H70 F67:F70 F73:F83 H73:H83">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>COUNTIF($N:$N,$N5)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:G60">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>COUNTIF(#REF!,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="8">
       <formula>LEN(TRIM(E82))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:H91 F20:H20">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>COUNTIF($M:$M,#REF!)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>COUNTIF($E:$E,$E97)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97 F97:G98">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>COUNTIF($F:$F,$F97)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>COUNTIF($E:$E,$E98)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>COUNTIF($F:$F,$F98)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4180,17 +4370,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="656db63e-0aa2-4982-a6ef-7cfc894502dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097749175EA382F46998456ACE2E5E022" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f9564bd998978afe117d271aa86623d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="656db63e-0aa2-4982-a6ef-7cfc894502dc" xmlns:ns3="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c8d268a87e81341ebbd7ca6aba28788" ns2:_="" ns3:_="">
     <xsd:import namespace="656db63e-0aa2-4982-a6ef-7cfc894502dc"/>
@@ -4401,6 +4580,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="656db63e-0aa2-4982-a6ef-7cfc894502dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4411,17 +4601,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{272F5C3E-8BC0-4DF6-913A-B867BEBD80EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e"/>
-    <ds:schemaRef ds:uri="656db63e-0aa2-4982-a6ef-7cfc894502dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B5B63AB-5528-472F-BE4A-13B18B02B409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4440,6 +4619,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{272F5C3E-8BC0-4DF6-913A-B867BEBD80EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e"/>
+    <ds:schemaRef ds:uri="656db63e-0aa2-4982-a6ef-7cfc894502dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{043FBB36-7F63-4B63-8343-64EBAA2E147B}">
   <ds:schemaRefs>

--- a/src/i18n/i18n_table.xlsx
+++ b/src/i18n/i18n_table.xlsx
@@ -24,11 +24,11 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="AJ篩選 非本人勿用" guid="{26C905C7-2C39-4702-9479-6A8F4386ED3B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="篩選器 3" guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="篩選器 4" guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="篩選器 1" guid="{38507902-7545-485C-834F-5E4850BE1025}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="篩選器 2" guid="{A49D9809-A3E9-4FA2-8EA4-867396B6504A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="篩選器 1" guid="{38507902-7545-485C-834F-5E4850BE1025}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="篩選器 4" guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="篩選器 3" guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="AJ篩選 非本人勿用" guid="{26C905C7-2C39-4702-9479-6A8F4386ED3B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="391">
   <si>
     <t>Key</t>
   </si>
@@ -163,10 +163,6 @@
   </si>
   <si>
     <t>Excel页面</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel系統123</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1414,6 +1410,94 @@
   <si>
     <t>淺色
 色調</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>column1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>column2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>column3</t>
+  </si>
+  <si>
+    <t>column4</t>
+  </si>
+  <si>
+    <t>column5</t>
+  </si>
+  <si>
+    <t>欄位1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位3</t>
+  </si>
+  <si>
+    <t>欄位4</t>
+  </si>
+  <si>
+    <t>欄位5</t>
+  </si>
+  <si>
+    <t>Column1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏位1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏位2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏位3</t>
+  </si>
+  <si>
+    <t>栏位4</t>
+  </si>
+  <si>
+    <t>栏位5</t>
+  </si>
+  <si>
+    <t>createTest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建測試</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Test</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel系統</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1677,12 +1761,12 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1699,6 +1783,38 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF00FF"/>
           <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF00FF"/>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1982,9 +2098,9 @@
   </sheetPr>
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E96" sqref="E96:H98"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -2145,16 +2261,16 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2178,16 +2294,16 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2213,16 +2329,16 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -2248,16 +2364,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2281,16 +2397,16 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2316,16 +2432,16 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2351,16 +2467,16 @@
         <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2384,16 +2500,16 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2417,16 +2533,16 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2450,16 +2566,16 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2483,16 +2599,16 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2516,16 +2632,16 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2549,16 +2665,16 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2582,16 +2698,16 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2615,16 +2731,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2648,16 +2764,16 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2681,16 +2797,16 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2714,16 +2830,16 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2746,16 +2862,16 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1">
@@ -2765,16 +2881,16 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1">
@@ -2784,16 +2900,16 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1">
@@ -2803,16 +2919,16 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1">
@@ -2822,16 +2938,16 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1">
@@ -2841,16 +2957,16 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1">
@@ -2860,16 +2976,16 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1">
@@ -2879,16 +2995,16 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1">
@@ -2898,16 +3014,16 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1">
@@ -2917,16 +3033,16 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1">
@@ -2936,16 +3052,16 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1">
@@ -2955,16 +3071,16 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1">
@@ -2974,16 +3090,16 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1">
@@ -2993,16 +3109,16 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1">
@@ -3012,16 +3128,16 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1">
@@ -3031,16 +3147,16 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1">
@@ -3050,16 +3166,16 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1">
@@ -3069,16 +3185,16 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1">
@@ -3088,16 +3204,16 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1">
@@ -3107,16 +3223,16 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1">
@@ -3126,16 +3242,16 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G43" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1">
@@ -3145,16 +3261,16 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1">
@@ -3164,16 +3280,16 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1">
@@ -3183,16 +3299,16 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1">
@@ -3202,16 +3318,16 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1">
@@ -3221,16 +3337,16 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1">
@@ -3240,16 +3356,16 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1">
@@ -3259,16 +3375,16 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="G50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1">
@@ -3278,16 +3394,16 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1">
@@ -3297,16 +3413,16 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1">
@@ -3316,16 +3432,16 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1">
@@ -3335,16 +3451,16 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1">
@@ -3354,16 +3470,16 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1">
@@ -3373,16 +3489,16 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1">
@@ -3392,16 +3508,16 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1">
@@ -3411,16 +3527,16 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="G58" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1">
@@ -3430,16 +3546,16 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F59" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="H59" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1">
@@ -3449,16 +3565,16 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="G60" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1">
@@ -3468,16 +3584,16 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1">
@@ -3487,16 +3603,16 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1">
@@ -3506,16 +3622,16 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
@@ -3525,16 +3641,16 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1">
@@ -3544,16 +3660,16 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1">
@@ -3563,16 +3679,16 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1">
@@ -3582,16 +3698,16 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1">
@@ -3601,16 +3717,16 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1">
@@ -3620,16 +3736,16 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H69" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1">
@@ -3639,16 +3755,16 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H70" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1">
@@ -3658,16 +3774,16 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1">
@@ -3677,16 +3793,16 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1">
@@ -3696,16 +3812,16 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1">
@@ -3715,16 +3831,16 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1">
@@ -3734,16 +3850,16 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1">
@@ -3753,16 +3869,16 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" customHeight="1">
@@ -3772,16 +3888,16 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1">
@@ -3791,16 +3907,16 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1">
@@ -3810,16 +3926,16 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1">
@@ -3830,16 +3946,16 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1">
@@ -3850,16 +3966,16 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1">
@@ -3870,16 +3986,16 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1">
@@ -3890,16 +4006,16 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="G83" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="H83" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1">
@@ -3910,16 +4026,16 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F84" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="G84" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="G84" s="13" t="s">
+      <c r="H84" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1">
@@ -3930,16 +4046,16 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="F85" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="F85" s="14" t="s">
+      <c r="G85" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="G85" s="14" t="s">
+      <c r="H85" s="14" t="s">
         <v>334</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1">
@@ -3950,16 +4066,16 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1">
@@ -3970,16 +4086,16 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1">
@@ -3990,16 +4106,16 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1">
@@ -4010,16 +4126,16 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1">
@@ -4030,16 +4146,16 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1">
@@ -4050,16 +4166,16 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="G91" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1">
@@ -4093,13 +4209,13 @@
         <v>23</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>31</v>
+        <v>390</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15" customHeight="1">
@@ -4119,7 +4235,7 @@
         <v>29</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" customHeight="1">
@@ -4139,7 +4255,7 @@
         <v>30</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4147,16 +4263,16 @@
         <v>17</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4164,16 +4280,16 @@
         <v>17</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4181,53 +4297,119 @@
         <v>17</v>
       </c>
       <c r="E98" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="H98" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="F98" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="G98" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1">
-      <c r="E99" s="2"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-    </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1">
-      <c r="E100" s="2"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-    </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1">
-      <c r="E101" s="2"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-    </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1">
-      <c r="E102" s="2"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-    </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1">
-      <c r="E103" s="2"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-    </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1">
-      <c r="E104" s="2"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
+    </row>
+    <row r="99" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="D99" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="D100" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="D101" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="D102" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="D103" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="D104" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="105" spans="2:8" ht="15" customHeight="1">
       <c r="E105" s="2"/>
@@ -4248,30 +4430,18 @@
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="E1:E907"/>
+      <autoFilter ref="A2:AA913">
+        <filterColumn colId="3">
+          <filters>
+            <filter val="V"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="573770298"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{38507902-7545-485C-834F-5E4850BE1025}" filter="1" showAutoFilter="1">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A2:I613"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2063878908"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{A49D9809-A3E9-4FA2-8EA4-867396B6504A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:N612"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2032162165"/>
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1007846334"/>
         </ext>
       </extLst>
     </customSheetView>
@@ -4292,76 +4462,108 @@
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A49D9809-A3E9-4FA2-8EA4-867396B6504A}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A2:AA913">
-        <filterColumn colId="3">
-          <filters>
-            <filter val="V"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
+      <autoFilter ref="A1:N612"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1007846334"/>
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2032162165"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{38507902-7545-485C-834F-5E4850BE1025}" filter="1" showAutoFilter="1">
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <autoFilter ref="A2:I613"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2063878908"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" filter="1" showAutoFilter="1">
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <autoFilter ref="E1:E907"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="573770298"/>
         </ext>
       </extLst>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="F2:H3 E1:E3 E96 E4:H4 E92:H95 E99:E106">
-    <cfRule type="expression" dxfId="10" priority="89">
+  <conditionalFormatting sqref="F2:H3 E1:E3 E96 E4:H4 E92:H95 E99:E103 E105:E106">
+    <cfRule type="expression" dxfId="14" priority="93">
       <formula>COUNTIF($E:$E,$E1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4 F1:F4 F92:F96 H92:H96 H99:H106 F99:F106">
-    <cfRule type="expression" dxfId="9" priority="90">
+  <conditionalFormatting sqref="H2:H4 F1:F4 F92:F96 H92:H96 H105:H106 F99:F103 F105:F106">
+    <cfRule type="expression" dxfId="13" priority="94">
       <formula>COUNTIF($F:$F,$F1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:H87 E5:H19 E21:H83">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>COUNTIF($M:$M,$M5)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68:G69 H85:H91 H5:H60 F85:F91 F5:F60 F62:F65 H62:H65 H67:H70 F67:F70 F73:F83 H73:H83">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>COUNTIF($N:$N,$N5)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:G60">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>COUNTIF(#REF!,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="12">
       <formula>LEN(TRIM(E82))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:H91 F20:H20">
-    <cfRule type="expression" dxfId="4" priority="9">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>COUNTIF($M:$M,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>COUNTIF($E:$E,$E97)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97 F97:G98">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>COUNTIF($F:$F,$F97)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>COUNTIF($E:$E,$E98)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>COUNTIF($F:$F,$F98)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99:H103">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>COUNTIF($E:$E,$E99)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>COUNTIF($E:$E,$E104)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F104">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>COUNTIF($F:$F,$F104)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>COUNTIF($E:$E,$E104)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4370,6 +4572,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="656db63e-0aa2-4982-a6ef-7cfc894502dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097749175EA382F46998456ACE2E5E022" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f9564bd998978afe117d271aa86623d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="656db63e-0aa2-4982-a6ef-7cfc894502dc" xmlns:ns3="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c8d268a87e81341ebbd7ca6aba28788" ns2:_="" ns3:_="">
     <xsd:import namespace="656db63e-0aa2-4982-a6ef-7cfc894502dc"/>
@@ -4580,17 +4793,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="656db63e-0aa2-4982-a6ef-7cfc894502dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4601,6 +4803,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{272F5C3E-8BC0-4DF6-913A-B867BEBD80EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e"/>
+    <ds:schemaRef ds:uri="656db63e-0aa2-4982-a6ef-7cfc894502dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B5B63AB-5528-472F-BE4A-13B18B02B409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4619,17 +4832,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{272F5C3E-8BC0-4DF6-913A-B867BEBD80EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a874f0ba-44be-4b2a-98a4-eb9ea6f4d70e"/>
-    <ds:schemaRef ds:uri="656db63e-0aa2-4982-a6ef-7cfc894502dc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{043FBB36-7F63-4B63-8343-64EBAA2E147B}">
   <ds:schemaRefs>

--- a/src/i18n/i18n_table.xlsx
+++ b/src/i18n/i18n_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AAT\Desktop\iPASP_vue備份檔案\vite-system-demo\src\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\_project\vite-system-demo\src\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C711177-89BA-4C3F-BEE8-15EAA4A489B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
+    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="newTranslateFile" sheetId="2" r:id="rId1"/>
@@ -31,17 +32,6 @@
     <customWorkbookView name="篩選器 2" guid="{A49D9809-A3E9-4FA2-8EA4-867396B6504A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgxVtHJxExmSmeEV71iWItZ7U6bQA=="/>
     </ext>
@@ -50,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="394">
   <si>
     <t>Key</t>
   </si>
@@ -1498,13 +1488,25 @@
   </si>
   <si>
     <t>Excel系統</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationCommands</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -1727,7 +1729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1757,19 +1759,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF00FF"/>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1783,62 +1780,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF00FF"/>
           <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF00FF"/>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF00FF"/>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF00FF"/>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF00FF"/>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1869,8 +1810,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2092,15 +2033,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U106"/>
+  <dimension ref="A1:U107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -2662,19 +2603,23 @@
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>392</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>391</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>391</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>50</v>
+        <v>393</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2698,16 +2643,16 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2731,16 +2676,16 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2764,16 +2709,16 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2797,16 +2742,16 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2830,16 +2775,16 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2855,24 +2800,38 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A23" s="2"/>
       <c r="B23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="B24" s="7" t="s">
@@ -2881,16 +2840,16 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>209</v>
+        <v>68</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>211</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1">
@@ -2900,16 +2859,16 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1">
@@ -2919,16 +2878,16 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1">
@@ -2938,16 +2897,16 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1">
@@ -2957,16 +2916,16 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1">
@@ -2976,16 +2935,16 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>226</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1">
@@ -2995,16 +2954,16 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1">
@@ -3014,16 +2973,16 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>231</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1">
@@ -3033,16 +2992,16 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1">
@@ -3052,16 +3011,16 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1">
@@ -3071,16 +3030,16 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1">
@@ -3090,16 +3049,16 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1">
@@ -3109,16 +3068,16 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1">
@@ -3128,16 +3087,16 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1">
@@ -3147,16 +3106,16 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1">
@@ -3166,16 +3125,16 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1">
@@ -3185,16 +3144,16 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1">
@@ -3204,16 +3163,16 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>258</v>
+        <v>86</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>260</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1">
@@ -3223,16 +3182,16 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1">
@@ -3242,16 +3201,16 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>261</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1">
@@ -3261,16 +3220,16 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1">
@@ -3280,16 +3239,16 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1">
@@ -3299,16 +3258,16 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1">
@@ -3318,16 +3277,16 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>93</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1">
@@ -3337,16 +3296,16 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>283</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1">
@@ -3356,16 +3315,16 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>95</v>
+        <v>282</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1">
@@ -3375,16 +3334,16 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>97</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1">
@@ -3394,16 +3353,16 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1">
@@ -3413,16 +3372,16 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>294</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1">
@@ -3432,16 +3391,16 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1">
@@ -3451,16 +3410,16 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>100</v>
+        <v>295</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1">
@@ -3470,16 +3429,16 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>298</v>
+        <v>100</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>299</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1">
@@ -3489,16 +3448,16 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>301</v>
+        <v>102</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1">
@@ -3508,16 +3467,16 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>105</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1">
@@ -3526,17 +3485,17 @@
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>108</v>
+      <c r="E58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1">
@@ -3546,16 +3505,16 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="11" t="s">
-        <v>304</v>
+        <v>106</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1">
@@ -3565,16 +3524,16 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>306</v>
+        <v>109</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>307</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1">
@@ -3583,17 +3542,17 @@
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>115</v>
+      <c r="E61" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1">
@@ -3603,16 +3562,16 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>308</v>
+        <v>113</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>309</v>
+        <v>114</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>310</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1">
@@ -3622,16 +3581,16 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>312</v>
+        <v>116</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
@@ -3641,321 +3600,320 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>117</v>
+        <v>312</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="15" customHeight="1">
       <c r="B65" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>118</v>
+        <v>315</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>318</v>
+        <v>117</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="15" customHeight="1">
       <c r="B66" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>120</v>
+        <v>319</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="15" customHeight="1">
       <c r="B67" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="15" customHeight="1">
       <c r="B68" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="15" customHeight="1">
       <c r="B69" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1">
+      <c r="E69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="15" customHeight="1">
       <c r="B70" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="15" customHeight="1">
       <c r="B71" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1">
+      <c r="E71" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="15" customHeight="1">
       <c r="B72" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="15" customHeight="1">
       <c r="B73" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="15" customHeight="1">
       <c r="B74" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="15" customHeight="1">
       <c r="B75" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="15" customHeight="1">
       <c r="B76" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="15" customHeight="1">
       <c r="B77" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="15" customHeight="1">
       <c r="B78" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="15" customHeight="1">
       <c r="B79" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1">
-      <c r="A80" s="9"/>
-      <c r="B80" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="15" customHeight="1">
+      <c r="B80" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1">
@@ -3966,16 +3924,16 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1">
@@ -3986,16 +3944,16 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1">
@@ -4005,17 +3963,17 @@
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>326</v>
+      <c r="E83" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1">
@@ -4025,17 +3983,17 @@
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>330</v>
+      <c r="E84" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1">
@@ -4045,17 +4003,17 @@
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>334</v>
+      <c r="E85" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1">
@@ -4065,17 +4023,17 @@
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>338</v>
+      <c r="E86" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1">
@@ -4086,16 +4044,16 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1">
@@ -4106,16 +4064,16 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>171</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1">
@@ -4126,16 +4084,16 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>344</v>
+        <v>169</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>345</v>
+        <v>170</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>346</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1">
@@ -4146,16 +4104,16 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1">
@@ -4166,16 +4124,16 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>172</v>
+        <v>347</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>173</v>
+        <v>348</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1">
@@ -4186,93 +4144,96 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>22</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15" customHeight="1">
       <c r="A93" s="9"/>
-      <c r="B93" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C93" s="10"/>
+      <c r="B93" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>355</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15" customHeight="1">
       <c r="A94" s="9"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B94" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="10"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>26</v>
+        <v>390</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" customHeight="1">
       <c r="A95" s="9"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="7" t="s">
+      <c r="B95" s="18"/>
+      <c r="C95" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1">
+      <c r="A96" s="9"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G96" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H96" s="7" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="B96" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="F96" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="97" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4280,16 +4241,16 @@
         <v>17</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4297,33 +4258,33 @@
         <v>17</v>
       </c>
       <c r="E98" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="B99" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="F99" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="G98" s="20" t="s">
+      <c r="G99" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="H98" s="8" t="s">
+      <c r="H99" s="8" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="D99" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="100" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4331,16 +4292,16 @@
         <v>17</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4348,16 +4309,16 @@
         <v>17</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4365,16 +4326,16 @@
         <v>17</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4382,16 +4343,16 @@
         <v>17</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
@@ -4399,23 +4360,34 @@
         <v>17</v>
       </c>
       <c r="E104" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="D105" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F105" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G105" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="H104" s="8" t="s">
+      <c r="H105" s="8" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="105" spans="2:8" ht="15" customHeight="1">
-      <c r="E105" s="2"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1">
       <c r="E106" s="2"/>
@@ -4423,16 +4395,22 @@
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
+    <row r="107" spans="2:8" ht="15" customHeight="1">
+      <c r="E107" s="2"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R3">
-    <sortState ref="A2:Y918">
+  <autoFilter ref="A1:R3" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y918">
       <sortCondition ref="E2:E918"/>
     </sortState>
   </autoFilter>
   <customSheetViews>
     <customSheetView guid="{8ECEFC75-0BA8-4E9D-B916-608021674B63}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A2:AA913">
+      <autoFilter ref="A2:AA913" xr:uid="{9F1D33FD-44B5-46C5-A4A5-10E0B572481D}">
         <filterColumn colId="3">
           <filters>
             <filter val="V"/>
@@ -4447,8 +4425,8 @@
     </customSheetView>
     <customSheetView guid="{26C905C7-2C39-4702-9479-6A8F4386ED3B}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A2:AA622">
-        <sortState ref="A2:AA622">
+      <autoFilter ref="A2:AA622" xr:uid="{40541A80-AC43-4544-96B6-4822F0F0DDD1}">
+        <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA622">
           <sortCondition ref="L2:L622"/>
           <sortCondition ref="J2:J622"/>
           <sortCondition ref="I2:I622"/>
@@ -4464,7 +4442,7 @@
     </customSheetView>
     <customSheetView guid="{A49D9809-A3E9-4FA2-8EA4-867396B6504A}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A1:N612"/>
+      <autoFilter ref="A1:N612" xr:uid="{7B86A97B-EAAE-4184-813F-9817DDC5A891}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2032162165"/>
@@ -4473,7 +4451,7 @@
     </customSheetView>
     <customSheetView guid="{38507902-7545-485C-834F-5E4850BE1025}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="A2:I613"/>
+      <autoFilter ref="A2:I613" xr:uid="{155215C0-9F0B-4F3E-B541-ECFFCB659CCF}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="2063878908"/>
@@ -4482,7 +4460,7 @@
     </customSheetView>
     <customSheetView guid="{D250C68A-1DD9-40FD-B45F-2D5104E4B2FD}" filter="1" showAutoFilter="1">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <autoFilter ref="E1:E907"/>
+      <autoFilter ref="E1:E907" xr:uid="{E60A0DE4-5E02-4C55-9C42-7A45161E4A27}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="573770298"/>
@@ -4491,79 +4469,39 @@
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="F2:H3 E1:E3 E96 E4:H4 E92:H95 E99:E103 E105:E106">
-    <cfRule type="expression" dxfId="14" priority="93">
+  <conditionalFormatting sqref="E1:E3 F2:H3 E4:H4 E93:H96 E97:E107 H100:H105">
+    <cfRule type="expression" dxfId="6" priority="93">
       <formula>COUNTIF($E:$E,$E1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4 F1:F4 F92:F96 H92:H96 H105:H106 F99:F103 F105:F106">
-    <cfRule type="expression" dxfId="13" priority="94">
+  <conditionalFormatting sqref="E83">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
+      <formula>LEN(TRIM(E83))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:H20 E22:H84 E86:H88">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>COUNTIF($M:$M,$M5)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F4 H2:H4 F93:F97 H93:H97 F98:H99 F100:F107 H106:H107">
+    <cfRule type="expression" dxfId="3" priority="94">
       <formula>COUNTIF($F:$F,$F1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85:H87 E5:H19 E21:H83">
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>COUNTIF($M:$M,$M5)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G68:G69 H85:H91 H5:H60 F85:F91 F5:F60 F62:F65 H62:H65 H67:H70 F67:F70 F73:F83 H73:H83">
-    <cfRule type="expression" dxfId="11" priority="10">
+  <conditionalFormatting sqref="F5:F61 H5:H61 G17 F63:F66 H63:H66 F68:F71 H68:H71 G69:G70 F74:F84 H74:H84 F86:F92 H86:H92">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>COUNTIF($N:$N,$N5)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58:G60">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>COUNTIF(#REF!,#REF!)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="12">
-      <formula>LEN(TRIM(E82))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F88:H91 F20:H20">
-    <cfRule type="expression" dxfId="8" priority="13">
+  <conditionalFormatting sqref="F21:H21 F89:H92">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>COUNTIF($M:$M,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>COUNTIF($E:$E,$E97)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H97 F97:G98">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>COUNTIF($F:$F,$F97)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>COUNTIF($E:$E,$E98)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>COUNTIF($F:$F,$F98)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H99:H103">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>COUNTIF($E:$E,$E99)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>COUNTIF($E:$E,$E104)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>COUNTIF($F:$F,$F104)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H104">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($E:$E,$E104)&gt;1</formula>
+  <conditionalFormatting sqref="G59:G61">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>COUNTIF(#REF!,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
